--- a/Sex_Pheromone_Study/Data/GC-EAD data.xlsx
+++ b/Sex_Pheromone_Study/Data/GC-EAD data.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esmael/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esmael/Desktop/Data Science Library/Data for play/Fall-Armyworm-Study/Sex_Pheromone_Study/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20FC25A-B9E3-9F44-B79F-CE057041922B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC85DF34-ED18-D244-9D10-ACD5FDBAF2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$141</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="18">
   <si>
     <t>wavename</t>
   </si>
@@ -62,9 +63,6 @@
     <t>run_date</t>
   </si>
   <si>
-    <t>mcb</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
@@ -77,94 +75,19 @@
     <t>Z-9-14</t>
   </si>
   <si>
-    <t>sample50</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
     <t>Z-11-16</t>
   </si>
   <si>
-    <t>sample37</t>
-  </si>
-  <si>
-    <t>sample38</t>
-  </si>
-  <si>
-    <t>sample22</t>
-  </si>
-  <si>
-    <t>md8</t>
-  </si>
-  <si>
-    <t>md9</t>
-  </si>
-  <si>
-    <t>md10</t>
-  </si>
-  <si>
-    <t>md11</t>
-  </si>
-  <si>
-    <t>sample20</t>
-  </si>
-  <si>
-    <t>sample40</t>
-  </si>
-  <si>
-    <t>sample24</t>
-  </si>
-  <si>
-    <t>sample21</t>
-  </si>
-  <si>
-    <t>sample46</t>
-  </si>
-  <si>
-    <t>md14</t>
-  </si>
-  <si>
-    <t>md1</t>
-  </si>
-  <si>
-    <t>md2</t>
-  </si>
-  <si>
-    <t>md4</t>
-  </si>
-  <si>
-    <t>md15</t>
-  </si>
-  <si>
-    <t>md17</t>
-  </si>
-  <si>
-    <t>mg1</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
-    <t>ng2</t>
+    <t>FAW</t>
   </si>
   <si>
-    <t>ng3</t>
-  </si>
-  <si>
-    <t>ng1</t>
-  </si>
-  <si>
-    <t>sample28</t>
-  </si>
-  <si>
-    <t>sample8</t>
-  </si>
-  <si>
-    <t>sample18</t>
-  </si>
-  <si>
-    <t>sample35</t>
+    <t>MCB</t>
   </si>
 </sst>
 </file>
@@ -183,15 +106,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -218,6 +147,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -572,7 +502,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -584,13 +514,13 @@
         <v>13120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>15.749700000000001</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="H2" s="2">
         <v>0.33673999999999998</v>
@@ -606,7 +536,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -618,13 +548,13 @@
         <v>13120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
         <v>15.863200000000001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2">
         <v>0.19669400000000001</v>
@@ -640,7 +570,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -652,13 +582,13 @@
         <v>13120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
         <v>17.999199999999998</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2">
         <v>0.36401499999999998</v>
@@ -674,31 +604,31 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>12138</v>
+        <v>16103</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>15.781000000000001</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>15.751200000000001</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="H5" s="2">
-        <v>3.1208799999999998E-2</v>
+        <v>0.104379</v>
       </c>
       <c r="I5" s="1">
-        <v>20220801</v>
+        <v>20221205</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -708,31 +638,31 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>12138</v>
+        <v>16103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
-        <v>15.9063</v>
+        <v>17.9557</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2">
-        <v>5.4287599999999998E-2</v>
+        <v>0.240754</v>
       </c>
       <c r="I6" s="1">
-        <v>20220801</v>
+        <v>20221205</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -742,31 +672,31 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
       <c r="D7" s="1">
-        <v>12138</v>
+        <v>14105</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>17.987300000000001</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>15.6778</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>0.26461899999999999</v>
+        <v>0.30159799999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>20220801</v>
+        <v>20220906</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -776,89 +706,89 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>14105</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>12130</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" s="2">
-        <v>15.773199999999999</v>
+        <v>15.807499999999999</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="2">
-        <v>0.55179299999999998</v>
+        <v>0.128245</v>
       </c>
       <c r="I8" s="1">
-        <v>20220804</v>
+        <v>20220906</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14105</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12130</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" s="2">
-        <v>15.906499999999999</v>
+        <v>17.881699999999999</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="2">
-        <v>0.495145</v>
+        <v>0.75268299999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>20220804</v>
+        <v>20220906</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14105</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>12130</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" s="2">
-        <v>18.0032</v>
+        <v>19.891300000000001</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2">
-        <v>1.02491</v>
+        <v>0.29189399999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>20220804</v>
+        <v>20220906</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -868,7 +798,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -877,22 +807,22 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>12130</v>
+        <v>16118</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2">
-        <v>20.029499999999999</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>15.762499999999999</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="H11" s="2">
-        <v>0.13925899999999999</v>
+        <v>0.52687799999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>20220804</v>
+        <v>20221207</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -905,28 +835,28 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>13127</v>
+        <v>16118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2">
-        <v>18.010999999999999</v>
+        <v>15.907500000000001</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2">
-        <v>6.0057300000000001E-2</v>
+        <v>0.36191699999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>20220804</v>
+        <v>20221207</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -939,28 +869,28 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>13127</v>
+        <v>16118</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2">
-        <v>20.092300000000002</v>
+        <v>17.980699999999999</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" s="2">
-        <v>5.0878199999999998E-2</v>
+        <v>0.82086999999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>20220804</v>
+        <v>20221207</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -970,31 +900,31 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>13130</v>
+        <v>16118</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2">
-        <v>17.999199999999998</v>
+        <v>20.0107</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="2">
-        <v>0.107526</v>
+        <v>0.175451</v>
       </c>
       <c r="I14" s="1">
-        <v>20220804</v>
+        <v>20221207</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1004,31 +934,31 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>13130</v>
+        <v>13137</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15.7967</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2">
-        <v>20.053000000000001</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" s="2">
-        <v>4.27482E-2</v>
+        <v>0.123262</v>
       </c>
       <c r="I15" s="1">
-        <v>20220804</v>
+        <v>20220809</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1041,28 +971,28 @@
         <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>12149</v>
+        <v>13137</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2">
-        <v>20.053000000000001</v>
+        <v>15.9298</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2">
-        <v>1.99317E-2</v>
+        <v>5.4549899999999998E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>20220804</v>
+        <v>20220809</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1072,31 +1002,31 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13137</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>16103</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F17" s="2">
-        <v>15.751200000000001</v>
+        <v>18.0227</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2">
-        <v>0.104379</v>
+        <v>0.43325200000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>20221205</v>
+        <v>20220809</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1106,31 +1036,31 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13137</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>16103</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F18" s="2">
-        <v>17.9557</v>
+        <v>20.056799999999999</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="2">
-        <v>0.240754</v>
+        <v>0.18410599999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>20221205</v>
+        <v>20220809</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1140,31 +1070,31 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>1673</v>
+        <v>1419</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3">
+        <v>15.761699999999999</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="2">
-        <v>17.992000000000001</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.37267</v>
+      <c r="H19" s="3">
+        <v>0.107264</v>
       </c>
       <c r="I19" s="1">
-        <v>20221205</v>
+        <v>20220819</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1174,31 +1104,31 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1419</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <v>14105</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2">
-        <v>15.6778</v>
+      <c r="F20" s="3">
+        <v>15.8675</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="2">
-        <v>0.30159799999999998</v>
+      <c r="H20" s="3">
+        <v>6.3466700000000001E-2</v>
       </c>
       <c r="I20" s="1">
-        <v>20220906</v>
+        <v>20220819</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1208,31 +1138,31 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1419</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>14105</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2">
-        <v>15.807499999999999</v>
+      <c r="F21" s="3">
+        <v>18.018999999999998</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="2">
-        <v>0.128245</v>
+      <c r="H21" s="3">
+        <v>0.26042300000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>20220906</v>
+        <v>20220819</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1242,31 +1172,31 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1419</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="F22" s="3">
+        <v>20.048999999999999</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1">
-        <v>14105</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2">
-        <v>17.881699999999999</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.75268299999999999</v>
+      <c r="H22" s="3">
+        <v>4.1436899999999999E-2</v>
       </c>
       <c r="I22" s="1">
-        <v>20220906</v>
+        <v>20220819</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1276,31 +1206,31 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13127</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1">
-        <v>14105</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F23" s="2">
-        <v>19.891300000000001</v>
+        <v>18.010999999999999</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H23" s="2">
-        <v>0.29189399999999999</v>
+        <v>6.0057300000000001E-2</v>
       </c>
       <c r="I23" s="1">
-        <v>20220906</v>
+        <v>20220804</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1310,31 +1240,31 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>14105</v>
+        <v>13127</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2">
-        <v>17.865300000000001</v>
+        <v>20.092300000000002</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="2">
-        <v>0.65879399999999999</v>
+        <v>5.0878199999999998E-2</v>
       </c>
       <c r="I24" s="1">
-        <v>20220906</v>
+        <v>20220804</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1344,31 +1274,31 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1">
-        <v>1376</v>
+        <v>13130</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2">
-        <v>17.871300000000002</v>
+        <v>17.999199999999998</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="2">
-        <v>0.50012800000000002</v>
+        <v>0.107526</v>
       </c>
       <c r="I25" s="1">
-        <v>20220907</v>
+        <v>20220804</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1378,31 +1308,31 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
-        <v>1478</v>
+        <v>13130</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="2">
-        <v>17.895</v>
+        <v>20.053000000000001</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="2">
-        <v>0.89981</v>
+        <v>4.27482E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>20220907</v>
+        <v>20220804</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1412,31 +1342,31 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>1482</v>
+        <v>1673</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="2">
-        <v>17.890999999999998</v>
+        <v>17.992000000000001</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="2">
-        <v>0.16128899999999999</v>
+        <v>0.37267</v>
       </c>
       <c r="I27" s="1">
-        <v>20220907</v>
+        <v>20221205</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1446,31 +1376,31 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14105</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>16118</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F28" s="2">
-        <v>15.762499999999999</v>
+        <v>17.865300000000001</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" s="2">
-        <v>0.52687799999999996</v>
+        <v>0.65879399999999999</v>
       </c>
       <c r="I28" s="1">
-        <v>20221207</v>
+        <v>20220906</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1480,31 +1410,31 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1478</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>16118</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F29" s="2">
-        <v>15.907500000000001</v>
+        <v>17.895</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="2">
-        <v>0.36191699999999999</v>
+        <v>0.89981</v>
       </c>
       <c r="I29" s="1">
-        <v>20221207</v>
+        <v>20220907</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1514,31 +1444,31 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1482</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>16118</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F30" s="2">
-        <v>17.980699999999999</v>
+        <v>17.890999999999998</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="2">
-        <v>0.82086999999999999</v>
+        <v>0.16128899999999999</v>
       </c>
       <c r="I30" s="1">
-        <v>20221207</v>
+        <v>20220907</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1548,28 +1478,28 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
         <v>16118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2">
-        <v>20.0107</v>
+        <v>17.996300000000002</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H31" s="2">
-        <v>0.175451</v>
+        <v>0.52110800000000002</v>
       </c>
       <c r="I31" s="1">
         <v>20221207</v>
@@ -1582,31 +1512,31 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1">
-        <v>16118</v>
+        <v>13134</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2">
+        <v>15.7882</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="2">
-        <v>17.996300000000002</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H32" s="2">
-        <v>0.52110800000000002</v>
+        <v>6.0319499999999998E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>20221207</v>
+        <v>20220809</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1616,28 +1546,28 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>13134</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>13137</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F33" s="2">
-        <v>15.7967</v>
+        <v>15.933299999999999</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="2">
-        <v>0.123262</v>
+        <v>1.59978E-2</v>
       </c>
       <c r="I33" s="1">
         <v>20220809</v>
@@ -1650,28 +1580,28 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>13134</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1">
-        <v>13137</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F34" s="2">
-        <v>15.9298</v>
+        <v>18.026</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="2">
-        <v>5.4549899999999998E-2</v>
+        <v>7.0023100000000005E-2</v>
       </c>
       <c r="I34" s="1">
         <v>20220809</v>
@@ -1684,28 +1614,28 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>13134</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>13137</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F35" s="2">
-        <v>18.0227</v>
+        <v>20.073499999999999</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" s="2">
-        <v>0.43325200000000003</v>
+        <v>7.8677700000000001E-4</v>
       </c>
       <c r="I35" s="1">
         <v>20220809</v>
@@ -1718,31 +1648,31 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>13137</v>
+        <v>1419</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2">
-        <v>20.056799999999999</v>
+        <v>9</v>
+      </c>
+      <c r="F36" s="3">
+        <v>18.030799999999999</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.18410599999999999</v>
+        <v>12</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.132965</v>
       </c>
       <c r="I36" s="1">
-        <v>20220809</v>
+        <v>20220819</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -1752,31 +1682,31 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1">
-        <v>13134</v>
+        <v>1404</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2">
-        <v>15.7882</v>
+        <v>9</v>
+      </c>
+      <c r="F37" s="3">
+        <v>18.018999999999998</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="2">
-        <v>6.0319499999999998E-2</v>
+        <v>12</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.15132300000000001</v>
       </c>
       <c r="I37" s="1">
-        <v>20220809</v>
+        <v>20220819</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -1786,31 +1716,31 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1">
-        <v>13134</v>
+        <v>1404</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2">
-        <v>15.933299999999999</v>
+        <v>9</v>
+      </c>
+      <c r="F38" s="3">
+        <v>20.0412</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1.59978E-2</v>
+        <v>14</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.41594300000000001</v>
       </c>
       <c r="I38" s="1">
-        <v>20220809</v>
+        <v>20220819</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -1820,7 +1750,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -1829,22 +1759,22 @@
         <v>8</v>
       </c>
       <c r="D39" s="1">
-        <v>13134</v>
+        <v>1418</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2">
-        <v>18.026</v>
+        <v>9</v>
+      </c>
+      <c r="F39" s="3">
+        <v>18.046500000000002</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="2">
-        <v>7.0023100000000005E-2</v>
+        <v>12</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.54628500000000002</v>
       </c>
       <c r="I39" s="1">
-        <v>20220809</v>
+        <v>20220819</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="4"/>
@@ -1854,7 +1784,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -1863,22 +1793,22 @@
         <v>8</v>
       </c>
       <c r="D40" s="1">
-        <v>13134</v>
+        <v>1418</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2">
-        <v>20.073499999999999</v>
+        <v>9</v>
+      </c>
+      <c r="F40" s="3">
+        <v>20.0412</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="2">
-        <v>7.8677700000000001E-4</v>
+        <v>14</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.22056000000000001</v>
       </c>
       <c r="I40" s="1">
-        <v>20220809</v>
+        <v>20220819</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -1888,31 +1818,31 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1593</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="2">
-        <v>18.016500000000001</v>
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1368</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3">
+        <v>17.994800000000001</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.33280700000000002</v>
-      </c>
-      <c r="I41" s="1">
-        <v>20221212</v>
+        <v>12</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.47940899999999997</v>
+      </c>
+      <c r="I41">
+        <v>20220726</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -1922,31 +1852,31 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1593</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="2">
-        <v>17.997</v>
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>1389</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>18.007300000000001</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.79254599999999997</v>
-      </c>
-      <c r="I42" s="1">
-        <v>20221212</v>
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>0.19800499999999999</v>
+      </c>
+      <c r="I42">
+        <v>20220727</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -1956,31 +1886,31 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1593</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2">
-        <v>18.020499999999998</v>
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>1391</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>18.018999999999998</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.56779100000000005</v>
-      </c>
-      <c r="I43" s="1">
-        <v>20221212</v>
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>0.79044800000000004</v>
+      </c>
+      <c r="I43">
+        <v>20220727</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -1990,31 +1920,31 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1">
-        <v>1593</v>
+        <v>12130</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2">
-        <v>18.020499999999998</v>
+        <v>15.773199999999999</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H44" s="2">
-        <v>1.04379</v>
+        <v>0.55179299999999998</v>
       </c>
       <c r="I44" s="1">
-        <v>20221212</v>
+        <v>20220804</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2024,31 +1954,31 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1">
-        <v>1593</v>
+        <v>12130</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F45" s="2">
-        <v>20.030999999999999</v>
+        <v>15.906499999999999</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H45" s="2">
-        <v>0.388405</v>
+        <v>0.495145</v>
       </c>
       <c r="I45" s="1">
-        <v>20221212</v>
+        <v>20220804</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -2058,31 +1988,31 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
       </c>
       <c r="D46" s="1">
-        <v>1305</v>
+        <v>12130</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="3">
-        <v>18.089700000000001</v>
+        <v>13</v>
+      </c>
+      <c r="F46" s="2">
+        <v>18.0032</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0.225018</v>
+        <v>12</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1.02491</v>
       </c>
       <c r="I46" s="1">
-        <v>20220816</v>
+        <v>20220804</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -2092,31 +2022,31 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
-        <v>14166</v>
+        <v>12130</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="3">
-        <v>15.576700000000001</v>
+        <v>13</v>
+      </c>
+      <c r="F47" s="2">
+        <v>20.029499999999999</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.23891799999999999</v>
+        <v>14</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.13925899999999999</v>
       </c>
       <c r="I47" s="1">
-        <v>20221117</v>
+        <v>20220804</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -2127,7 +2057,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -2139,16 +2069,16 @@
         <v>14166</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F48" s="3">
-        <v>15.7217</v>
+        <v>15.576700000000001</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H48" s="3">
-        <v>9.9920599999999998E-2</v>
+        <v>0.23891799999999999</v>
       </c>
       <c r="I48" s="1">
         <v>20221117</v>
@@ -2162,7 +2092,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -2174,16 +2104,16 @@
         <v>14166</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F49" s="3">
-        <v>17.810500000000001</v>
+        <v>15.7217</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H49" s="3">
-        <v>0.550481</v>
+        <v>9.9920599999999998E-2</v>
       </c>
       <c r="I49" s="1">
         <v>20221117</v>
@@ -2197,7 +2127,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
@@ -2209,16 +2139,16 @@
         <v>14166</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F50" s="3">
-        <v>19.817</v>
+        <v>17.810500000000001</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H50" s="3">
-        <v>0.242065</v>
+        <v>0.550481</v>
       </c>
       <c r="I50" s="1">
         <v>20221117</v>
@@ -2232,28 +2162,28 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
         <v>14166</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F51" s="3">
-        <v>17.829999999999998</v>
+        <v>19.817</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" s="3">
-        <v>0.31733299999999998</v>
+        <v>0.242065</v>
       </c>
       <c r="I51" s="1">
         <v>20221117</v>
@@ -2267,31 +2197,31 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1">
-        <v>14166</v>
+        <v>1514</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F52" s="3">
-        <v>17.822199999999999</v>
+        <v>15.5892</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H52" s="3">
-        <v>0.25544</v>
+        <v>0.21138100000000001</v>
       </c>
       <c r="I52" s="1">
-        <v>20221117</v>
+        <v>20221121</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -2302,31 +2232,31 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1">
-        <v>1419</v>
+        <v>1514</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F53" s="3">
-        <v>15.761699999999999</v>
+        <v>15.7027</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H53" s="3">
-        <v>0.107264</v>
+        <v>0.44059500000000001</v>
       </c>
       <c r="I53" s="1">
-        <v>20220819</v>
+        <v>20221121</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -2337,31 +2267,31 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1">
-        <v>1419</v>
+        <v>1514</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F54" s="3">
-        <v>15.8675</v>
+        <v>17.807300000000001</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="3">
-        <v>6.3466700000000001E-2</v>
+        <v>1.07185</v>
       </c>
       <c r="I54" s="1">
-        <v>20220819</v>
+        <v>20221121</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -2371,31 +2301,31 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1">
-        <v>1419</v>
+        <v>1514</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F55" s="3">
-        <v>18.018999999999998</v>
+        <v>19.817699999999999</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" s="3">
-        <v>0.26042300000000002</v>
+        <v>5.7172399999999998E-2</v>
       </c>
       <c r="I55" s="1">
-        <v>20220819</v>
+        <v>20221121</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -2405,31 +2335,31 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1">
         <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1">
-        <v>1419</v>
+        <v>1525</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="3">
+        <v>15.6073</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="3">
-        <v>20.048999999999999</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H56" s="3">
-        <v>4.1436899999999999E-2</v>
+        <v>0.28874699999999998</v>
       </c>
       <c r="I56" s="1">
-        <v>20220819</v>
+        <v>20221124</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -2439,31 +2369,31 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
-        <v>1419</v>
+        <v>1525</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F57" s="3">
-        <v>18.030799999999999</v>
+        <v>15.7248</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H57" s="3">
-        <v>0.132965</v>
+        <v>0.213479</v>
       </c>
       <c r="I57" s="1">
-        <v>20220819</v>
+        <v>20221124</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -2473,31 +2403,31 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1">
-        <v>1404</v>
+        <v>1525</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F58" s="3">
-        <v>18.018999999999998</v>
+        <v>17.8215</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="3">
-        <v>0.15132300000000001</v>
+        <v>0.75242100000000001</v>
       </c>
       <c r="I58" s="1">
-        <v>20220819</v>
+        <v>20221124</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -2507,31 +2437,31 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1">
-        <v>1404</v>
+        <v>1525</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3">
-        <v>20.0412</v>
+        <v>13</v>
+      </c>
+      <c r="F59" s="1">
+        <v>19.834700000000002</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0.41594300000000001</v>
+        <v>14</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.156831</v>
       </c>
       <c r="I59" s="1">
-        <v>20220819</v>
+        <v>20221124</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -2541,31 +2471,31 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1418</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>1360</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
       </c>
       <c r="F60" s="3">
-        <v>18.046500000000002</v>
+        <v>17.994299999999999</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="3">
-        <v>0.54628500000000002</v>
-      </c>
-      <c r="I60" s="1">
-        <v>20220819</v>
+        <v>0.80277500000000002</v>
+      </c>
+      <c r="I60">
+        <v>20220726</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -2575,31 +2505,31 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="1">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1418</v>
-      </c>
-      <c r="E61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>1360</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="3">
+        <v>15.7873</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="3">
-        <v>20.0412</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H61" s="3">
-        <v>0.22056000000000001</v>
-      </c>
-      <c r="I61" s="1">
-        <v>20220819</v>
+        <v>8.23493E-2</v>
+      </c>
+      <c r="I61">
+        <v>20220726</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -2609,31 +2539,31 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>9</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1314</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>1360</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
       </c>
       <c r="F62" s="3">
-        <v>18.046500000000002</v>
+        <v>15.837300000000001</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H62" s="3">
-        <v>0.22082199999999999</v>
-      </c>
-      <c r="I62" s="1">
-        <v>20220819</v>
+        <v>9.4413199999999996E-3</v>
+      </c>
+      <c r="I62">
+        <v>20220726</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -2643,31 +2573,31 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1">
-        <v>9</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1314</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="3">
-        <v>20.033300000000001</v>
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>1514</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63">
+        <v>15.5943</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1.8882599999999999E-2</v>
-      </c>
-      <c r="I63" s="1">
-        <v>20220819</v>
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>0.32861000000000001</v>
+      </c>
+      <c r="I63">
+        <v>20221128</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -2677,31 +2607,31 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1">
-        <v>6</v>
-      </c>
-      <c r="D64" s="1">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
         <v>1514</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="3">
-        <v>17.818999999999999</v>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64">
+        <v>15.7393</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0.550481</v>
-      </c>
-      <c r="I64" s="1">
-        <v>20221121</v>
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>0.314973</v>
+      </c>
+      <c r="I64">
+        <v>20221128</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -2711,31 +2641,31 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="1">
-        <v>2</v>
-      </c>
-      <c r="C65" s="1">
-        <v>7</v>
-      </c>
-      <c r="D65" s="1">
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
         <v>1514</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="3">
-        <v>15.5892</v>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65">
+        <v>17.843800000000002</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0.21138100000000001</v>
-      </c>
-      <c r="I65" s="1">
-        <v>20221121</v>
+        <v>12</v>
+      </c>
+      <c r="H65">
+        <v>0.34513300000000002</v>
+      </c>
+      <c r="I65">
+        <v>20221128</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -2745,31 +2675,31 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2</v>
-      </c>
-      <c r="C66" s="1">
-        <v>7</v>
-      </c>
-      <c r="D66" s="1">
+        <v>17</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
         <v>1514</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="3">
-        <v>15.7027</v>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <v>19.8613</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0.44059500000000001</v>
-      </c>
-      <c r="I66" s="1">
-        <v>20221121</v>
+        <v>14</v>
+      </c>
+      <c r="H66">
+        <v>0.10280499999999999</v>
+      </c>
+      <c r="I66">
+        <v>20221128</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -2779,31 +2709,31 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="1">
-        <v>2</v>
-      </c>
-      <c r="C67" s="1">
-        <v>7</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1514</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>12108</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
       </c>
       <c r="F67" s="3">
-        <v>17.807300000000001</v>
+        <v>15.78</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H67" s="3">
-        <v>1.07185</v>
-      </c>
-      <c r="I67" s="1">
-        <v>20221121</v>
+        <v>0.30107299999999998</v>
+      </c>
+      <c r="I67">
+        <v>20220729</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -2813,31 +2743,31 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="1">
-        <v>2</v>
-      </c>
-      <c r="C68" s="1">
-        <v>7</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1514</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>12108</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
       </c>
       <c r="F68" s="3">
-        <v>19.817699999999999</v>
+        <v>15.9038</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H68" s="3">
-        <v>5.7172399999999998E-2</v>
-      </c>
-      <c r="I68" s="1">
-        <v>20221121</v>
+        <v>0.219773</v>
+      </c>
+      <c r="I68">
+        <v>20220729</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -2847,31 +2777,31 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <v>12</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1514</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>12108</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
       </c>
       <c r="F69" s="3">
-        <v>17.807300000000001</v>
+        <v>17.998200000000001</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="3">
-        <v>0.61531499999999995</v>
-      </c>
-      <c r="I69" s="1">
-        <v>20221121</v>
+        <v>0.453183</v>
+      </c>
+      <c r="I69">
+        <v>20220729</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -2881,31 +2811,31 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1">
-        <v>1514</v>
+        <v>12138</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="3">
-        <v>15.5695</v>
+        <v>13</v>
+      </c>
+      <c r="F70" s="2">
+        <v>15.781000000000001</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0.10805099999999999</v>
+        <v>10</v>
+      </c>
+      <c r="H70" s="2">
+        <v>3.1208799999999998E-2</v>
       </c>
       <c r="I70" s="1">
-        <v>20221121</v>
+        <v>20220801</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -2915,31 +2845,31 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1">
-        <v>1514</v>
+        <v>12138</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="3">
-        <v>17.807300000000001</v>
+        <v>13</v>
+      </c>
+      <c r="F71" s="2">
+        <v>15.9063</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0.46577200000000002</v>
+        <v>11</v>
+      </c>
+      <c r="H71" s="2">
+        <v>5.4287599999999998E-2</v>
       </c>
       <c r="I71" s="1">
-        <v>20221121</v>
+        <v>20220801</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -2949,31 +2879,31 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1">
-        <v>1514</v>
+        <v>12138</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="3">
-        <v>17.816500000000001</v>
+        <v>13</v>
+      </c>
+      <c r="F72" s="2">
+        <v>17.987300000000001</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0.26619300000000001</v>
+        <v>12</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.26461899999999999</v>
       </c>
       <c r="I72" s="1">
-        <v>20221121</v>
+        <v>20220801</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -2983,31 +2913,31 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1">
-        <v>1514</v>
+        <v>12149</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="3">
-        <v>17.820499999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F73" s="2">
+        <v>20.053000000000001</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0.36218</v>
+        <v>14</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1.99317E-2</v>
       </c>
       <c r="I73" s="1">
-        <v>20221121</v>
+        <v>20220804</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -3017,31 +2947,31 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
       </c>
       <c r="C74" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1">
-        <v>1521</v>
+        <v>1376</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="3">
-        <v>17.809999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F74" s="2">
+        <v>17.871300000000002</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="3">
-        <v>0.65302499999999997</v>
+        <v>12</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.50012800000000002</v>
       </c>
       <c r="I74" s="1">
-        <v>20221121</v>
+        <v>20220907</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -3051,31 +2981,31 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
       </c>
       <c r="C75" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D75" s="1">
-        <v>1521</v>
+        <v>1593</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="3">
-        <v>17.8218</v>
+        <v>13</v>
+      </c>
+      <c r="F75" s="2">
+        <v>18.016500000000001</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="3">
-        <v>0.71727799999999997</v>
+        <v>12</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.33280700000000002</v>
       </c>
       <c r="I75" s="1">
-        <v>20221121</v>
+        <v>20221212</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -3085,31 +3015,31 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1">
-        <v>1521</v>
+        <v>1593</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="3">
-        <v>17.8218</v>
+        <v>13</v>
+      </c>
+      <c r="F76" s="2">
+        <v>17.997</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0.615259</v>
+        <v>12</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.79254599999999997</v>
       </c>
       <c r="I76" s="1">
-        <v>20221121</v>
+        <v>20221212</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -3119,31 +3049,31 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1">
-        <v>1521</v>
+        <v>1593</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="3">
-        <v>17.836200000000002</v>
+        <v>13</v>
+      </c>
+      <c r="F77" s="2">
+        <v>18.020499999999998</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="3">
-        <v>0.55415300000000001</v>
+        <v>12</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.56779100000000005</v>
       </c>
       <c r="I77" s="1">
-        <v>20221121</v>
+        <v>20221212</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -3153,31 +3083,31 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1">
-        <v>1521</v>
+        <v>1593</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="3">
-        <v>17.849299999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F78" s="2">
+        <v>18.020499999999998</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0.50222599999999995</v>
+        <v>12</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1.04379</v>
       </c>
       <c r="I78" s="1">
-        <v>20221121</v>
+        <v>20221212</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -3188,31 +3118,31 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
-        <v>1525</v>
+        <v>1593</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="3">
-        <v>15.6073</v>
+        <v>13</v>
+      </c>
+      <c r="F79" s="2">
+        <v>20.030999999999999</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0.28874699999999998</v>
+        <v>14</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.388405</v>
       </c>
       <c r="I79" s="1">
-        <v>20221124</v>
+        <v>20221212</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -3223,31 +3153,31 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
-        <v>1525</v>
+        <v>1305</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F80" s="3">
-        <v>15.7248</v>
+        <v>18.089700000000001</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="3">
-        <v>0.213479</v>
+        <v>0.225018</v>
       </c>
       <c r="I80" s="1">
-        <v>20221124</v>
+        <v>20220816</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -3257,31 +3187,31 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B81" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D81" s="1">
-        <v>1525</v>
+        <v>14166</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F81" s="3">
-        <v>17.8215</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" s="3">
-        <v>0.75242100000000001</v>
+        <v>0.31733299999999998</v>
       </c>
       <c r="I81" s="1">
-        <v>20221124</v>
+        <v>20221117</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3291,263 +3221,263 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D82" s="1">
-        <v>1525</v>
+        <v>14166</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="1">
-        <v>19.834700000000002</v>
+        <v>13</v>
+      </c>
+      <c r="F82" s="3">
+        <v>17.822199999999999</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0.156831</v>
+        <v>12</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.25544</v>
       </c>
       <c r="I82" s="1">
-        <v>20221124</v>
+        <v>20221117</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1">
-        <v>1525</v>
+        <v>1314</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="1">
-        <v>17.850300000000001</v>
+        <v>13</v>
+      </c>
+      <c r="F83" s="3">
+        <v>18.046500000000002</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0.41384500000000002</v>
+        <v>12</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0.22082199999999999</v>
       </c>
       <c r="I83" s="1">
-        <v>20221124</v>
+        <v>20220819</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="1">
-        <v>1525</v>
+        <v>1314</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="1">
-        <v>19.840199999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F84" s="3">
+        <v>20.033300000000001</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="1">
-        <v>8.3136100000000004E-2</v>
+        <v>14</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1.8882599999999999E-2</v>
       </c>
       <c r="I84" s="1">
-        <v>20221124</v>
+        <v>20220819</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D85" s="1">
-        <v>1525</v>
+        <v>1514</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="1">
-        <v>17.843800000000002</v>
+        <v>13</v>
+      </c>
+      <c r="F85" s="3">
+        <v>17.818999999999999</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0.58903399999999995</v>
+        <v>12</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0.550481</v>
       </c>
       <c r="I85" s="1">
-        <v>20221124</v>
+        <v>20221121</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D86" s="1">
-        <v>1525</v>
+        <v>1514</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="1">
-        <v>17.834499999999998</v>
+        <v>13</v>
+      </c>
+      <c r="F86" s="3">
+        <v>17.807300000000001</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0.57906800000000003</v>
+        <v>12</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0.61531499999999995</v>
       </c>
       <c r="I86" s="1">
-        <v>20221124</v>
+        <v>20221121</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1">
-        <v>213</v>
+        <v>1514</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F87" s="1">
-        <v>17.975999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F87" s="3">
+        <v>15.5695</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1.18357</v>
+        <v>10</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0.10805099999999999</v>
       </c>
       <c r="I87" s="1">
-        <v>20220125</v>
+        <v>20221121</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D88" s="1">
-        <v>213</v>
+        <v>1514</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F88" s="1">
-        <v>17.975999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F88" s="3">
+        <v>17.807300000000001</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="1">
-        <v>1.07605</v>
+        <v>12</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0.46577200000000002</v>
       </c>
       <c r="I88" s="1">
-        <v>20220125</v>
+        <v>20221121</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1">
-        <v>213</v>
+        <v>1514</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F89" s="1">
-        <v>17.975999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F89" s="3">
+        <v>17.816500000000001</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="1">
-        <v>1.16469</v>
+        <v>12</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0.26619300000000001</v>
       </c>
       <c r="I89" s="1">
-        <v>20220125</v>
+        <v>20221121</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D90" s="1">
-        <v>213</v>
+        <v>1514</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F90" s="1">
-        <v>15.769299999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F90" s="3">
+        <v>17.820499999999999</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0.22711600000000001</v>
+        <v>12</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0.36218</v>
       </c>
       <c r="I90" s="1">
-        <v>20220125</v>
+        <v>20221121</v>
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -3557,31 +3487,31 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D91" s="1">
-        <v>203</v>
+        <v>1521</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F91" s="3">
-        <v>15.847200000000001</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H91" s="3">
-        <v>0.79569400000000001</v>
+        <v>0.65302499999999997</v>
       </c>
       <c r="I91" s="1">
-        <v>20230126</v>
+        <v>20221121</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -3591,31 +3521,31 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1">
-        <v>203</v>
+        <v>1521</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F92" s="3">
-        <v>17.9312</v>
+        <v>17.8218</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H92" s="3">
-        <v>1.04064</v>
+        <v>0.71727799999999997</v>
       </c>
       <c r="I92" s="1">
-        <v>20230126</v>
+        <v>20221121</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -3625,31 +3555,31 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D93" s="1">
-        <v>203</v>
+        <v>1521</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F93" s="3">
-        <v>19.9512</v>
+        <v>17.8218</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H93" s="3">
-        <v>0.108575</v>
+        <v>0.615259</v>
       </c>
       <c r="I93" s="1">
-        <v>20230126</v>
+        <v>20221121</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -3659,31 +3589,31 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B94" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D94" s="1">
-        <v>203</v>
+        <v>1521</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F94" s="3">
-        <v>15.8543</v>
+        <v>17.836200000000002</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H94" s="3">
-        <v>0.57251099999999999</v>
+        <v>0.55415300000000001</v>
       </c>
       <c r="I94" s="1">
-        <v>20230126</v>
+        <v>20221121</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -3693,31 +3623,31 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D95" s="1">
-        <v>203</v>
+        <v>1521</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F95" s="3">
-        <v>17.929200000000002</v>
+        <v>17.849299999999999</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" s="3">
-        <v>1.02569</v>
+        <v>0.50222599999999995</v>
       </c>
       <c r="I95" s="1">
-        <v>20230126</v>
+        <v>20221121</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -3727,31 +3657,31 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1">
-        <v>203</v>
+        <v>1525</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F96" s="3">
-        <v>19.968</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="1">
+        <v>17.850300000000001</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0.15787999999999999</v>
+        <v>12</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.41384500000000002</v>
       </c>
       <c r="I96" s="1">
-        <v>20230126</v>
+        <v>20221124</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -3761,31 +3691,31 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
       </c>
       <c r="C97" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1">
-        <v>203</v>
+        <v>1525</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" s="3">
-        <v>17.952200000000001</v>
+        <v>13</v>
+      </c>
+      <c r="F97" s="1">
+        <v>19.840199999999999</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="3">
-        <v>0.867815</v>
+        <v>14</v>
+      </c>
+      <c r="H97" s="1">
+        <v>8.3136100000000004E-2</v>
       </c>
       <c r="I97" s="1">
-        <v>20230126</v>
+        <v>20221124</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -3795,31 +3725,31 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="1">
-        <v>203</v>
+        <v>1525</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F98" s="3">
-        <v>17.938700000000001</v>
+        <v>13</v>
+      </c>
+      <c r="F98" s="1">
+        <v>17.843800000000002</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="3">
-        <v>0.78598999999999997</v>
+        <v>12</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.58903399999999995</v>
       </c>
       <c r="I98" s="1">
-        <v>20230126</v>
+        <v>20221124</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -3829,31 +3759,31 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
       </c>
       <c r="C99" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1">
-        <v>203</v>
+        <v>1525</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F99" s="3">
-        <v>17.9528</v>
+        <v>13</v>
+      </c>
+      <c r="F99" s="1">
+        <v>17.834499999999998</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="3">
-        <v>0.77786</v>
+        <v>12</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.57906800000000003</v>
       </c>
       <c r="I99" s="1">
-        <v>20230126</v>
+        <v>20221124</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -3863,31 +3793,31 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1">
-        <v>2</v>
-      </c>
-      <c r="C100" s="1">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1">
-        <v>203</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>1297</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
       </c>
       <c r="F100" s="3">
-        <v>15.7172</v>
+        <v>18.0062</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H100" s="3">
-        <v>0.55021900000000001</v>
-      </c>
-      <c r="I100" s="1">
-        <v>20230126</v>
+        <v>0.72986700000000004</v>
+      </c>
+      <c r="I100">
+        <v>20220726</v>
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -3897,31 +3827,31 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="1">
-        <v>20</v>
-      </c>
-      <c r="C101" s="1">
-        <v>8</v>
-      </c>
-      <c r="D101" s="1">
-        <v>203</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>1297</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
       </c>
       <c r="F101" s="3">
-        <v>15.7235</v>
+        <v>18.915299999999998</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H101" s="3">
-        <v>0.86938800000000005</v>
-      </c>
-      <c r="I101" s="1">
-        <v>20230126</v>
+        <v>0.910825</v>
+      </c>
+      <c r="I101">
+        <v>20220726</v>
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -3931,31 +3861,31 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="1">
-        <v>20</v>
-      </c>
-      <c r="C102" s="1">
-        <v>8</v>
-      </c>
-      <c r="D102" s="1">
-        <v>203</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F102" s="3">
-        <v>15.839</v>
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>12109</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102">
+        <v>18.0228</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="3">
-        <v>1.07552</v>
-      </c>
-      <c r="I102" s="1">
-        <v>20230126</v>
+      <c r="H102">
+        <v>0.25832500000000003</v>
+      </c>
+      <c r="I102">
+        <v>20220727</v>
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -3965,31 +3895,31 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="1">
-        <v>20</v>
-      </c>
-      <c r="C103" s="1">
-        <v>8</v>
-      </c>
-      <c r="D103" s="1">
-        <v>203</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F103" s="3">
-        <v>17.930199999999999</v>
+        <v>16</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>1514</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103">
+        <v>17.828199999999999</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="3">
-        <v>1.06372</v>
-      </c>
-      <c r="I103" s="1">
-        <v>20230126</v>
+        <v>12</v>
+      </c>
+      <c r="H103">
+        <v>0.54366300000000001</v>
+      </c>
+      <c r="I103">
+        <v>20221128</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -3999,31 +3929,31 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="1">
-        <v>20</v>
-      </c>
-      <c r="C104" s="1">
+        <v>16</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>1514</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104">
+        <v>15.586499999999999</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D104" s="1">
-        <v>203</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F104" s="3">
-        <v>19.971499999999999</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" s="3">
-        <v>0.30946600000000002</v>
-      </c>
-      <c r="I104" s="1">
-        <v>20230126</v>
+      <c r="H104">
+        <v>0.13139200000000001</v>
+      </c>
+      <c r="I104">
+        <v>20221128</v>
       </c>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -4033,31 +3963,31 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="1">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1">
-        <v>4</v>
-      </c>
-      <c r="D105" s="1">
-        <v>203</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F105" s="3">
-        <v>15.5692</v>
+        <v>16</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>1514</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105">
+        <v>19.8415</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" s="3">
-        <v>0.156306</v>
-      </c>
-      <c r="I105" s="1">
-        <v>20230126</v>
+        <v>14</v>
+      </c>
+      <c r="H105">
+        <v>6.5040200000000006E-2</v>
+      </c>
+      <c r="I105">
+        <v>20221128</v>
       </c>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
@@ -4067,31 +3997,31 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="1">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1">
-        <v>4</v>
-      </c>
-      <c r="D106" s="1">
-        <v>203</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F106" s="3">
-        <v>15.7415</v>
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>1514</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>15.558999999999999</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="3">
-        <v>0.207709</v>
-      </c>
-      <c r="I106" s="1">
-        <v>20230126</v>
+        <v>10</v>
+      </c>
+      <c r="H106">
+        <v>0.16522300000000001</v>
+      </c>
+      <c r="I106">
+        <v>20221128</v>
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
@@ -4101,31 +4031,31 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="1">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1">
-        <v>4</v>
-      </c>
-      <c r="D107" s="1">
-        <v>203</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F107" s="3">
-        <v>17.966000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>1514</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107">
+        <v>17.824200000000001</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="3">
-        <v>0.38893</v>
-      </c>
-      <c r="I107" s="1">
-        <v>20230126</v>
+        <v>12</v>
+      </c>
+      <c r="H107">
+        <v>0.39837099999999998</v>
+      </c>
+      <c r="I107">
+        <v>20221128</v>
       </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -4135,31 +4065,31 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="1">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1">
-        <v>4</v>
-      </c>
-      <c r="D108" s="1">
-        <v>203</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F108" s="3">
-        <v>19.953199999999999</v>
+        <v>16</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>1514</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108">
+        <v>15.614000000000001</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H108" s="3">
-        <v>0.211118</v>
-      </c>
-      <c r="I108" s="1">
-        <v>20230126</v>
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>0.132441</v>
+      </c>
+      <c r="I108">
+        <v>20221128</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="3"/>
@@ -4168,32 +4098,32 @@
       <c r="O108" s="3"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>9</v>
+      <c r="A109" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D109">
-        <v>1360</v>
+        <v>1514</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="3">
-        <v>17.994299999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F109">
+        <v>17.8322</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="3">
-        <v>0.80277500000000002</v>
+        <v>12</v>
+      </c>
+      <c r="H109">
+        <v>0.425122</v>
       </c>
       <c r="I109">
-        <v>20220726</v>
+        <v>20221128</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -4203,32 +4133,32 @@
       <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>9</v>
+      <c r="A110" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>1360</v>
+        <v>1514</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="3">
-        <v>15.7873</v>
+        <v>13</v>
+      </c>
+      <c r="F110">
+        <v>17.84</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="3">
-        <v>8.23493E-2</v>
+        <v>12</v>
+      </c>
+      <c r="H110">
+        <v>0.16364999999999999</v>
       </c>
       <c r="I110">
-        <v>20220726</v>
+        <v>20221128</v>
       </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -4238,32 +4168,32 @@
       <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>9</v>
+      <c r="A111" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>1360</v>
+        <v>1514</v>
       </c>
       <c r="E111" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="3">
-        <v>15.837300000000001</v>
+        <v>13</v>
+      </c>
+      <c r="F111">
+        <v>15.5983</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="3">
-        <v>9.4413199999999996E-3</v>
+        <v>10</v>
+      </c>
+      <c r="H111">
+        <v>4.0912400000000002E-2</v>
       </c>
       <c r="I111">
-        <v>20220726</v>
+        <v>20221128</v>
       </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -4273,8 +4203,8 @@
       <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>40</v>
+      <c r="A112" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4283,22 +4213,22 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>1368</v>
+        <v>12102</v>
       </c>
       <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="3">
+        <v>15.784000000000001</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F112" s="3">
-        <v>17.994800000000001</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H112" s="3">
-        <v>0.47940899999999997</v>
+        <v>1.44242E-2</v>
       </c>
       <c r="I112">
-        <v>20220726</v>
+        <v>20220729</v>
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -4308,32 +4238,32 @@
       <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>40</v>
+      <c r="A113" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113">
-        <v>1297</v>
+        <v>12102</v>
       </c>
       <c r="E113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F113" s="3">
-        <v>18.0062</v>
+        <v>15.9055</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H113" s="3">
-        <v>0.72986700000000004</v>
+        <v>0.28219100000000003</v>
       </c>
       <c r="I113">
-        <v>20220726</v>
+        <v>20220729</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -4343,32 +4273,32 @@
       <c r="P113" s="3"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>40</v>
+      <c r="A114" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>1297</v>
+        <v>12102</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F114" s="3">
-        <v>18.915299999999998</v>
+        <v>17.990300000000001</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H114" s="3">
-        <v>0.910825</v>
+        <v>0.104904</v>
       </c>
       <c r="I114">
-        <v>20220726</v>
+        <v>20220729</v>
       </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -4378,32 +4308,32 @@
       <c r="P114" s="3"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>40</v>
+      <c r="A115" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D115">
-        <v>12109</v>
+        <v>13107</v>
       </c>
       <c r="E115" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115">
-        <v>18.0228</v>
+        <v>13</v>
+      </c>
+      <c r="F115" s="3">
+        <v>15.7722</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115">
-        <v>0.25832500000000003</v>
+        <v>10</v>
+      </c>
+      <c r="H115" s="3">
+        <v>2.3341000000000001E-2</v>
       </c>
       <c r="I115">
-        <v>20220727</v>
+        <v>20220729</v>
       </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -4413,37 +4343,37 @@
       <c r="P115" s="3"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>40</v>
+      <c r="A116" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116">
-        <v>1389</v>
+        <v>13107</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116">
-        <v>18.007300000000001</v>
+        <v>13</v>
+      </c>
+      <c r="F116" s="3">
+        <v>15.878</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116">
-        <v>0.19800499999999999</v>
+        <v>11</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1.2063900000000001E-2</v>
       </c>
       <c r="I116">
-        <v>20220727</v>
+        <v>20220729</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>40</v>
+      <c r="A117" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4452,518 +4382,518 @@
         <v>6</v>
       </c>
       <c r="D117">
-        <v>1391</v>
+        <v>13107</v>
       </c>
       <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="3">
+        <v>17.998200000000001</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0.16286300000000001</v>
+      </c>
+      <c r="I117">
+        <v>20220729</v>
+      </c>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>12104</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="3">
+        <v>15.7605</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F117">
-        <v>18.018999999999998</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117">
-        <v>0.79044800000000004</v>
-      </c>
-      <c r="I117">
-        <v>20220727</v>
-      </c>
-      <c r="K117" s="6"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="C118">
+      <c r="H118" s="3">
+        <v>4.4846299999999999E-2</v>
+      </c>
+      <c r="I118">
+        <v>20220729</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>12104</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="3">
+        <v>18.0138</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="3">
+        <v>0.42092600000000002</v>
+      </c>
+      <c r="I119">
+        <v>20220729</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <v>203</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="3">
+        <v>15.847200000000001</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0.79569400000000001</v>
+      </c>
+      <c r="I120" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>203</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="3">
+        <v>17.9312</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="3">
+        <v>1.04064</v>
+      </c>
+      <c r="I121" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1">
+        <v>203</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="3">
+        <v>19.9512</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0.108575</v>
+      </c>
+      <c r="I122" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1">
+        <v>11</v>
+      </c>
+      <c r="D123" s="1">
+        <v>203</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="3">
+        <v>15.8543</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0.57251099999999999</v>
+      </c>
+      <c r="I123" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1">
+        <v>11</v>
+      </c>
+      <c r="D124" s="1">
+        <v>203</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="3">
+        <v>17.929200000000002</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="3">
+        <v>1.02569</v>
+      </c>
+      <c r="I124" s="1">
+        <v>20230126</v>
+      </c>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1">
+        <v>11</v>
+      </c>
+      <c r="D125" s="1">
+        <v>203</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="3">
+        <v>19.968</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0.15787999999999999</v>
+      </c>
+      <c r="I125" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1">
+        <v>203</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="3">
+        <v>15.7172</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0.55021900000000001</v>
+      </c>
+      <c r="I126" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" s="1">
+        <v>20</v>
+      </c>
+      <c r="C127" s="1">
+        <v>8</v>
+      </c>
+      <c r="D127" s="1">
+        <v>203</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="3">
+        <v>15.7235</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0.86938800000000005</v>
+      </c>
+      <c r="I127" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="1">
+        <v>20</v>
+      </c>
+      <c r="C128" s="1">
+        <v>8</v>
+      </c>
+      <c r="D128" s="1">
+        <v>203</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="3">
+        <v>15.839</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="3">
+        <v>1.07552</v>
+      </c>
+      <c r="I128" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="1">
+        <v>20</v>
+      </c>
+      <c r="C129" s="1">
+        <v>8</v>
+      </c>
+      <c r="D129" s="1">
+        <v>203</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="3">
+        <v>17.930199999999999</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="3">
+        <v>1.06372</v>
+      </c>
+      <c r="I129" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" s="1">
+        <v>20</v>
+      </c>
+      <c r="C130" s="1">
+        <v>10</v>
+      </c>
+      <c r="D130" s="1">
+        <v>203</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="3">
+        <v>19.971499999999999</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0.30946600000000002</v>
+      </c>
+      <c r="I130" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
         <v>4</v>
       </c>
-      <c r="D118">
-        <v>1514</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D131" s="1">
+        <v>203</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F118">
-        <v>15.5943</v>
-      </c>
-      <c r="G118" s="1" t="s">
+      <c r="F131" s="3">
+        <v>15.5692</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0.156306</v>
+      </c>
+      <c r="I131" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>4</v>
+      </c>
+      <c r="D132" s="1">
+        <v>203</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="3">
+        <v>15.7415</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H118">
-        <v>0.32861000000000001</v>
-      </c>
-      <c r="I118">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-      <c r="C119">
+      <c r="H132" s="3">
+        <v>0.207709</v>
+      </c>
+      <c r="I132" s="1">
+        <v>20230126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
         <v>4</v>
       </c>
-      <c r="D119">
-        <v>1514</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="D133" s="1">
+        <v>203</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F119">
-        <v>15.7393</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119">
-        <v>0.314973</v>
-      </c>
-      <c r="I119">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120">
+      <c r="F133" s="3">
+        <v>17.966000000000001</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="3">
+        <v>0.38893</v>
+      </c>
+      <c r="I133" s="1">
+        <v>20230126</v>
+      </c>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1">
         <v>4</v>
       </c>
-      <c r="D120">
-        <v>1514</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="D134" s="1">
+        <v>203</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F120">
-        <v>17.843800000000002</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120">
-        <v>0.34513300000000002</v>
-      </c>
-      <c r="I120">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121">
-        <v>2</v>
-      </c>
-      <c r="C121">
-        <v>4</v>
-      </c>
-      <c r="D121">
-        <v>1514</v>
-      </c>
-      <c r="E121" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121">
-        <v>19.8613</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121">
-        <v>0.10280499999999999</v>
-      </c>
-      <c r="I121">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>41</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>5</v>
-      </c>
-      <c r="D122">
-        <v>1514</v>
-      </c>
-      <c r="E122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122">
-        <v>17.828199999999999</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122">
-        <v>0.54366300000000001</v>
-      </c>
-      <c r="I122">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>41</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>5</v>
-      </c>
-      <c r="D123">
-        <v>1514</v>
-      </c>
-      <c r="E123" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123">
-        <v>15.586499999999999</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123">
-        <v>0.13139200000000001</v>
-      </c>
-      <c r="I123">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>41</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>5</v>
-      </c>
-      <c r="D124">
-        <v>1514</v>
-      </c>
-      <c r="E124" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124">
-        <v>19.8415</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124">
-        <v>6.5040200000000006E-2</v>
-      </c>
-      <c r="I124">
-        <v>20221128</v>
-      </c>
-      <c r="K124" s="6"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>42</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>7</v>
-      </c>
-      <c r="D125">
-        <v>1514</v>
-      </c>
-      <c r="E125" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125">
-        <v>15.558999999999999</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125">
-        <v>0.16522300000000001</v>
-      </c>
-      <c r="I125">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>42</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>7</v>
-      </c>
-      <c r="D126">
-        <v>1514</v>
-      </c>
-      <c r="E126" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126">
-        <v>17.824200000000001</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126">
-        <v>0.39837099999999998</v>
-      </c>
-      <c r="I126">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>42</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>8</v>
-      </c>
-      <c r="D127">
-        <v>1514</v>
-      </c>
-      <c r="E127" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127">
-        <v>15.614000000000001</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127">
-        <v>0.132441</v>
-      </c>
-      <c r="I127">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>42</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-      <c r="D128">
-        <v>1514</v>
-      </c>
-      <c r="E128" t="s">
-        <v>15</v>
-      </c>
-      <c r="F128">
-        <v>17.8322</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128">
-        <v>0.425122</v>
-      </c>
-      <c r="I128">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>27</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>10</v>
-      </c>
-      <c r="D129">
-        <v>1514</v>
-      </c>
-      <c r="E129" t="s">
-        <v>15</v>
-      </c>
-      <c r="F129">
-        <v>17.84</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129">
-        <v>0.16364999999999999</v>
-      </c>
-      <c r="I129">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>27</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>10</v>
-      </c>
-      <c r="D130">
-        <v>1514</v>
-      </c>
-      <c r="E130" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130">
-        <v>15.5983</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130">
-        <v>4.0912400000000002E-2</v>
-      </c>
-      <c r="I130">
-        <v>20221128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131">
-        <v>2</v>
-      </c>
-      <c r="C131">
-        <v>3</v>
-      </c>
-      <c r="D131">
-        <v>12108</v>
-      </c>
-      <c r="E131" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" s="3">
-        <v>15.78</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="3">
-        <v>0.30107299999999998</v>
-      </c>
-      <c r="I131">
-        <v>20220729</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132">
-        <v>2</v>
-      </c>
-      <c r="C132">
-        <v>3</v>
-      </c>
-      <c r="D132">
-        <v>12108</v>
-      </c>
-      <c r="E132" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" s="3">
-        <v>15.9038</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="3">
-        <v>0.219773</v>
-      </c>
-      <c r="I132">
-        <v>20220729</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133">
-        <v>2</v>
-      </c>
-      <c r="C133">
-        <v>3</v>
-      </c>
-      <c r="D133">
-        <v>12108</v>
-      </c>
-      <c r="E133" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="3">
-        <v>17.998200000000001</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="3">
-        <v>0.453183</v>
-      </c>
-      <c r="I133">
-        <v>20220729</v>
-      </c>
-      <c r="K133" s="6"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>43</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>4</v>
-      </c>
-      <c r="D134">
-        <v>12102</v>
-      </c>
-      <c r="E134" t="s">
-        <v>15</v>
-      </c>
       <c r="F134" s="3">
-        <v>15.784000000000001</v>
+        <v>19.953199999999999</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H134" s="3">
-        <v>1.44242E-2</v>
-      </c>
-      <c r="I134">
-        <v>20220729</v>
+        <v>0.211118</v>
+      </c>
+      <c r="I134" s="1">
+        <v>20230126</v>
       </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -4972,32 +4902,32 @@
       <c r="O134" s="3"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>4</v>
-      </c>
-      <c r="D135">
-        <v>12102</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="A135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>213</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F135" s="3">
-        <v>15.9055</v>
+      <c r="F135" s="1">
+        <v>17.975999999999999</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="3">
-        <v>0.28219100000000003</v>
-      </c>
-      <c r="I135">
-        <v>20220729</v>
+      <c r="H135" s="1">
+        <v>1.18357</v>
+      </c>
+      <c r="I135" s="1">
+        <v>20220125</v>
       </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -5006,32 +4936,32 @@
       <c r="O135" s="3"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>43</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>4</v>
-      </c>
-      <c r="D136">
-        <v>12102</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="A136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>6</v>
+      </c>
+      <c r="D136" s="1">
+        <v>213</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F136" s="3">
-        <v>17.990300000000001</v>
+      <c r="F136" s="1">
+        <v>17.975999999999999</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" s="3">
-        <v>0.104904</v>
-      </c>
-      <c r="I136">
-        <v>20220729</v>
+        <v>12</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1.07605</v>
+      </c>
+      <c r="I136" s="1">
+        <v>20220125</v>
       </c>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -5040,32 +4970,32 @@
       <c r="O136" s="3"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>6</v>
-      </c>
-      <c r="D137">
-        <v>13107</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="A137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>7</v>
+      </c>
+      <c r="D137" s="1">
+        <v>213</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F137" s="3">
-        <v>15.7722</v>
+      <c r="F137" s="1">
+        <v>17.975999999999999</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" s="3">
-        <v>2.3341000000000001E-2</v>
-      </c>
-      <c r="I137">
-        <v>20220729</v>
+        <v>12</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1.16469</v>
+      </c>
+      <c r="I137" s="1">
+        <v>20220125</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -5074,32 +5004,32 @@
       <c r="O137" s="3"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>6</v>
-      </c>
-      <c r="D138">
-        <v>13107</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="A138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>7</v>
+      </c>
+      <c r="D138" s="1">
+        <v>213</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F138" s="3">
-        <v>15.878</v>
+      <c r="F138" s="1">
+        <v>15.769299999999999</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H138" s="3">
-        <v>1.2063900000000001E-2</v>
-      </c>
-      <c r="I138">
-        <v>20220729</v>
+        <v>10</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.22711600000000001</v>
+      </c>
+      <c r="I138" s="1">
+        <v>20220125</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -5108,32 +5038,32 @@
       <c r="O138" s="3"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>6</v>
-      </c>
-      <c r="D139">
-        <v>13107</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="A139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>12</v>
+      </c>
+      <c r="D139" s="1">
+        <v>203</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F139" s="3">
-        <v>17.998200000000001</v>
+        <v>17.952200000000001</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H139" s="3">
-        <v>0.16286300000000001</v>
-      </c>
-      <c r="I139">
-        <v>20220729</v>
+        <v>0.867815</v>
+      </c>
+      <c r="I139" s="1">
+        <v>20230126</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -5142,32 +5072,32 @@
       <c r="O139" s="3"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>7</v>
-      </c>
-      <c r="D140">
-        <v>12104</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="A140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>13</v>
+      </c>
+      <c r="D140" s="1">
+        <v>203</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F140" s="3">
-        <v>15.7605</v>
+        <v>17.938700000000001</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H140" s="3">
-        <v>4.4846299999999999E-2</v>
-      </c>
-      <c r="I140">
-        <v>20220729</v>
+        <v>0.78598999999999997</v>
+      </c>
+      <c r="I140" s="1">
+        <v>20230126</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -5176,32 +5106,32 @@
       <c r="O140" s="3"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1">
         <v>14</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>7</v>
-      </c>
-      <c r="D141">
-        <v>12104</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D141" s="1">
+        <v>203</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F141" s="3">
-        <v>18.0138</v>
+        <v>17.9528</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H141" s="3">
-        <v>0.42092600000000002</v>
-      </c>
-      <c r="I141">
-        <v>20220729</v>
+        <v>0.77786</v>
+      </c>
+      <c r="I141" s="1">
+        <v>20230126</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -5238,6 +5168,10 @@
       <c r="O145" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I146">
+    <sortCondition ref="E1:E146"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>